--- a/PPT data/2 week/정답제출/인원별 맞은개수.xlsx
+++ b/PPT data/2 week/정답제출/인원별 맞은개수.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DeepLearning Study\발표자료\DeepLearningStudy\PPT data\2 week\정답제출\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2018305056\Desktop\DeepLearningStudy\PPT data\2 week\정답제출\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{27492CAE-48EA-4BD4-9311-58FF640E21A6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{2D1023DD-8CCA-4924-90B7-5E8778B1A80F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
   <si>
     <t>조시훈</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -198,13 +197,17 @@
   </si>
   <si>
     <t>총합</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>윤소민</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -647,11 +650,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB69C49A-34F7-47A3-BF24-D6B0348800C4}">
-  <dimension ref="A1:S26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -659,7 +662,7 @@
     <col min="1" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -715,128 +718,131 @@
       <c r="S1" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T1" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>41</v>
       </c>
@@ -845,7 +851,7 @@
         <v>0</v>
       </c>
       <c r="C26" s="4">
-        <f t="shared" ref="C26:S26" si="0">SUM(C2:C25)</f>
+        <f t="shared" ref="C26:T26" si="0">SUM(C2:C25)</f>
         <v>0</v>
       </c>
       <c r="D26" s="4">
@@ -909,6 +915,10 @@
         <v>0</v>
       </c>
       <c r="S26" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T26" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -916,5 +926,6 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/PPT data/2 week/정답제출/인원별 맞은개수.xlsx
+++ b/PPT data/2 week/정답제출/인원별 맞은개수.xlsx
@@ -653,8 +653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -776,11 +776,101 @@
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2">
+        <v>1</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1</v>
+      </c>
+      <c r="L12" s="2">
+        <v>1</v>
+      </c>
+      <c r="M12" s="2">
+        <v>1</v>
+      </c>
+      <c r="N12" s="2">
+        <v>1</v>
+      </c>
+      <c r="O12" s="2">
+        <v>0</v>
+      </c>
+      <c r="P12" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>1</v>
+      </c>
+      <c r="R12" s="2">
+        <v>1</v>
+      </c>
+      <c r="S12" s="2">
+        <v>1</v>
+      </c>
+      <c r="T12" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0</v>
+      </c>
+      <c r="N13" s="2">
+        <v>1</v>
+      </c>
+      <c r="O13" s="2">
+        <v>0</v>
+      </c>
+      <c r="P13" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>0</v>
+      </c>
+      <c r="R13" s="2">
+        <v>1</v>
+      </c>
+      <c r="S13" s="2">
+        <v>1</v>
+      </c>
+      <c r="T13" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
@@ -852,27 +942,27 @@
       </c>
       <c r="C26" s="4">
         <f t="shared" ref="C26:T26" si="0">SUM(C2:C25)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F26" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G26" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H26" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" s="4">
         <f t="shared" si="0"/>
@@ -888,15 +978,15 @@
       </c>
       <c r="L26" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N26" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O26" s="4">
         <f t="shared" si="0"/>
@@ -904,23 +994,23 @@
       </c>
       <c r="P26" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q26" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R26" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S26" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T26" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/PPT data/2 week/정답제출/인원별 맞은개수.xlsx
+++ b/PPT data/2 week/정답제출/인원별 맞은개수.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2018305056\Desktop\DeepLearningStudy\PPT data\2 week\정답제출\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2018305046\Desktop\새 폴더\DeepLearningStudy\DeepLearningStudy\PPT data\2 week\정답제출\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -184,24 +184,22 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>7,8-(5)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>총합</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>윤소민</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>7,8-(3)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>7,8-(4)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>7,8-(5)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>총합</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>윤소민</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -653,8 +651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -719,7 +717,7 @@
         <v>17</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
@@ -914,17 +912,101 @@
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2">
+        <v>1</v>
+      </c>
+      <c r="G22" s="2">
+        <v>1</v>
+      </c>
+      <c r="H22" s="2">
+        <v>1</v>
+      </c>
+      <c r="L22" s="2">
+        <v>1</v>
+      </c>
+      <c r="M22" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="O22" s="2">
+        <v>0</v>
+      </c>
+      <c r="P22" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>0</v>
+      </c>
+      <c r="R22" s="2">
+        <v>0</v>
+      </c>
+      <c r="S22" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="T22" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0</v>
+      </c>
+      <c r="F23" s="2">
+        <v>1</v>
+      </c>
+      <c r="G23" s="2">
+        <v>1</v>
+      </c>
+      <c r="H23" s="2">
+        <v>1</v>
+      </c>
+      <c r="L23" s="2">
+        <v>1</v>
+      </c>
+      <c r="M23" s="2">
+        <v>0</v>
+      </c>
+      <c r="O23" s="2">
+        <v>0</v>
+      </c>
+      <c r="P23" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>0</v>
+      </c>
+      <c r="R23" s="2">
+        <v>0</v>
+      </c>
+      <c r="S23" s="2">
+        <v>0</v>
+      </c>
+      <c r="T23" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.3">
@@ -934,7 +1016,7 @@
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B26" s="4">
         <f>SUM(B2:B25)</f>
@@ -946,7 +1028,7 @@
       </c>
       <c r="D26" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="E26" s="4">
         <f t="shared" si="0"/>
@@ -954,63 +1036,63 @@
       </c>
       <c r="F26" s="4">
         <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G26" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H26" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I26" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="M26" s="4">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="N26" s="4">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G26" s="4">
+      <c r="O26" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P26" s="4">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H26" s="4">
+      <c r="Q26" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R26" s="4">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="I26" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J26" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K26" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L26" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M26" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="N26" s="4">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="O26" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P26" s="4">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="Q26" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="R26" s="4">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
       <c r="S26" s="4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="T26" s="4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/PPT data/2 week/정답제출/인원별 맞은개수.xlsx
+++ b/PPT data/2 week/정답제출/인원별 맞은개수.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2018305046\Desktop\새 폴더\DeepLearningStudy\DeepLearningStudy\PPT data\2 week\정답제출\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2018305008\Desktop\keras study\DeepLearningStudy\PPT data\2 week\정답제출\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -652,7 +652,7 @@
   <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="V15" sqref="V15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -874,16 +874,151 @@
       <c r="A14" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1</v>
+      </c>
+      <c r="L14" s="2">
+        <v>0</v>
+      </c>
+      <c r="M14" s="2">
+        <v>1</v>
+      </c>
+      <c r="N14" s="2">
+        <v>0</v>
+      </c>
+      <c r="O14" s="2">
+        <v>0</v>
+      </c>
+      <c r="P14" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>0</v>
+      </c>
+      <c r="R14" s="2">
+        <v>0</v>
+      </c>
+      <c r="S14" s="2">
+        <v>1</v>
+      </c>
+      <c r="T14" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2">
+        <v>1</v>
+      </c>
+      <c r="H15" s="2">
+        <v>1</v>
+      </c>
+      <c r="L15" s="2">
+        <v>1</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0</v>
+      </c>
+      <c r="N15" s="2">
+        <v>0</v>
+      </c>
+      <c r="O15" s="2">
+        <v>0</v>
+      </c>
+      <c r="P15" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>0</v>
+      </c>
+      <c r="R15" s="2">
+        <v>1</v>
+      </c>
+      <c r="S15" s="2">
+        <v>0</v>
+      </c>
+      <c r="T15" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="C16" s="2">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1</v>
+      </c>
+      <c r="G16" s="2">
+        <v>1</v>
+      </c>
+      <c r="H16" s="2">
+        <v>1</v>
+      </c>
+      <c r="L16" s="2">
+        <v>1</v>
+      </c>
+      <c r="M16" s="2">
+        <v>0</v>
+      </c>
+      <c r="N16" s="2">
+        <v>0</v>
+      </c>
+      <c r="O16" s="2">
+        <v>0</v>
+      </c>
+      <c r="P16" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>0</v>
+      </c>
+      <c r="R16" s="2">
+        <v>1</v>
+      </c>
+      <c r="S16" s="2">
+        <v>0</v>
+      </c>
+      <c r="T16" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
@@ -899,6 +1034,51 @@
       <c r="A19" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="C19" s="2">
+        <v>0</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0</v>
+      </c>
+      <c r="H19" s="2">
+        <v>1</v>
+      </c>
+      <c r="L19" s="2">
+        <v>0</v>
+      </c>
+      <c r="M19" s="2">
+        <v>1</v>
+      </c>
+      <c r="N19" s="2">
+        <v>0</v>
+      </c>
+      <c r="O19" s="2">
+        <v>0</v>
+      </c>
+      <c r="P19" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>0</v>
+      </c>
+      <c r="R19" s="2">
+        <v>1</v>
+      </c>
+      <c r="S19" s="2">
+        <v>1</v>
+      </c>
+      <c r="T19" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
@@ -938,6 +1118,9 @@
       <c r="M22" s="2">
         <v>0.5</v>
       </c>
+      <c r="N22" s="2">
+        <v>0</v>
+      </c>
       <c r="O22" s="2">
         <v>0</v>
       </c>
@@ -985,6 +1168,9 @@
       <c r="M23" s="2">
         <v>0</v>
       </c>
+      <c r="N23" s="2">
+        <v>0</v>
+      </c>
       <c r="O23" s="2">
         <v>0</v>
       </c>
@@ -1024,7 +1210,7 @@
       </c>
       <c r="C26" s="4">
         <f t="shared" ref="C26:T26" si="0">SUM(C2:C25)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26" s="4">
         <f t="shared" si="0"/>
@@ -1032,67 +1218,67 @@
       </c>
       <c r="E26" s="4">
         <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F26" s="4">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="G26" s="4">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="H26" s="4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="I26" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="M26" s="4">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+      <c r="N26" s="4">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F26" s="4">
+      <c r="O26" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P26" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G26" s="4">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="H26" s="4">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="I26" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J26" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K26" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L26" s="4">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="M26" s="4">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="N26" s="4">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="O26" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P26" s="4">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
       <c r="Q26" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="R26" s="4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S26" s="4">
         <f t="shared" si="0"/>
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="T26" s="4">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/PPT data/2 week/정답제출/인원별 맞은개수.xlsx
+++ b/PPT data/2 week/정답제출/인원별 맞은개수.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2018305008\Desktop\keras study\DeepLearningStudy\PPT data\2 week\정답제출\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2018305059.SKUCE\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15630" windowHeight="6945"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -652,7 +652,7 @@
   <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V15" sqref="V15"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -764,11 +764,101 @@
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0</v>
+      </c>
+      <c r="N10" s="2">
+        <v>0</v>
+      </c>
+      <c r="O10" s="2">
+        <v>0</v>
+      </c>
+      <c r="P10" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>0</v>
+      </c>
+      <c r="R10" s="2">
+        <v>0</v>
+      </c>
+      <c r="S10" s="2">
+        <v>0</v>
+      </c>
+      <c r="T10" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0</v>
+      </c>
+      <c r="M11" s="2">
+        <v>1</v>
+      </c>
+      <c r="N11" s="2">
+        <v>1</v>
+      </c>
+      <c r="O11" s="2">
+        <v>0</v>
+      </c>
+      <c r="P11" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>1</v>
+      </c>
+      <c r="R11" s="2">
+        <v>1</v>
+      </c>
+      <c r="S11" s="2">
+        <v>1</v>
+      </c>
+      <c r="T11" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
@@ -1210,75 +1300,75 @@
       </c>
       <c r="C26" s="4">
         <f t="shared" ref="C26:T26" si="0">SUM(C2:C25)</f>
+        <v>4</v>
+      </c>
+      <c r="D26" s="4">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+      <c r="E26" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F26" s="4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="G26" s="4">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="H26" s="4">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="I26" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="M26" s="4">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+      <c r="N26" s="4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O26" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P26" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="Q26" s="4">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D26" s="4">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="E26" s="4">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F26" s="4">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="G26" s="4">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="H26" s="4">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="I26" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J26" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K26" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L26" s="4">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="M26" s="4">
-        <f t="shared" si="0"/>
-        <v>3.5</v>
-      </c>
-      <c r="N26" s="4">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="O26" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P26" s="4">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="Q26" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
       <c r="R26" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S26" s="4">
         <f t="shared" si="0"/>
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="T26" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/PPT data/2 week/정답제출/인원별 맞은개수.xlsx
+++ b/PPT data/2 week/정답제출/인원별 맞은개수.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2018305059.SKUCE\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2015305023\Desktop\딥러닝 스터디\DeepLearningStudy\PPT data\2 week\정답제출\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -651,8 +651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="W19" sqref="W19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1114,11 +1114,101 @@
       <c r="A17" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="C17" s="2">
+        <v>0</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1</v>
+      </c>
+      <c r="G17" s="2">
+        <v>1</v>
+      </c>
+      <c r="H17" s="2">
+        <v>1</v>
+      </c>
+      <c r="L17" s="2">
+        <v>1</v>
+      </c>
+      <c r="M17" s="2">
+        <v>1</v>
+      </c>
+      <c r="N17" s="2">
+        <v>1</v>
+      </c>
+      <c r="O17" s="2">
+        <v>0</v>
+      </c>
+      <c r="P17" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>1</v>
+      </c>
+      <c r="R17" s="2">
+        <v>1</v>
+      </c>
+      <c r="S17" s="2">
+        <v>1</v>
+      </c>
+      <c r="T17" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="C18" s="2">
+        <v>0</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1</v>
+      </c>
+      <c r="G18" s="2">
+        <v>1</v>
+      </c>
+      <c r="H18" s="2">
+        <v>1</v>
+      </c>
+      <c r="L18" s="2">
+        <v>1</v>
+      </c>
+      <c r="M18" s="2">
+        <v>0</v>
+      </c>
+      <c r="N18" s="2">
+        <v>0</v>
+      </c>
+      <c r="O18" s="2">
+        <v>0</v>
+      </c>
+      <c r="P18" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>0</v>
+      </c>
+      <c r="R18" s="2">
+        <v>0</v>
+      </c>
+      <c r="S18" s="2">
+        <v>1</v>
+      </c>
+      <c r="T18" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
@@ -1308,19 +1398,19 @@
       </c>
       <c r="E26" s="4">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F26" s="4">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G26" s="4">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H26" s="4">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I26" s="4">
         <f t="shared" si="0"/>
@@ -1336,39 +1426,39 @@
       </c>
       <c r="L26" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M26" s="4">
         <f t="shared" si="0"/>
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="N26" s="4">
         <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="O26" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P26" s="4">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="Q26" s="4">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="O26" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P26" s="4">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="Q26" s="4">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
       <c r="R26" s="4">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S26" s="4">
         <f t="shared" si="0"/>
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="T26" s="4">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/PPT data/2 week/정답제출/인원별 맞은개수.xlsx
+++ b/PPT data/2 week/정답제출/인원별 맞은개수.xlsx
@@ -1,269 +1,497 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Polaris Office Sheet" lastEdited="6" lowestEdited="7" rupBuild="8.1.852.35783"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2015305023\Desktop\딥러닝 스터디\DeepLearningStudy\PPT data\2 week\정답제출\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15630" windowHeight="6945"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="590" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>조시훈</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>홍혁진</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>정다은</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>윤인섭</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>이태근</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>안준헌</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>이지선</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>김나영</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>김영진</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>고재형</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>김윤호</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>조동민</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>이성찬</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>이태학</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>홍유진</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>이용준</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>천수빈</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>김현종</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1,2-(1)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1,2-(2)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1,2-(3)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1,2-(4)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1,2-(5)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1,2-(6)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>3,4-(1)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>3,4-(2)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>3,4-(3)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>3,4-(4)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>3,4-(5)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>3,4-(6)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>5,6-(1)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>5,6-(2)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>5,6-(3)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>5,6-(4)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>5,6-(5)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>5,6-(6)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>7,8-(1)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>7,8-(2)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>7,8-(5)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>총합</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>윤소민</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>7,8-(3)</t>
   </si>
   <si>
     <t>7,8-(4)</t>
+  </si>
+  <si>
+    <t>7,8-(6)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="64" formatCode="&quot;₩&quot;#,##0;\\\-&quot;₩&quot;#,##0"/>
+  </numFmts>
+  <fonts count="21">
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11.0"/>
       <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
       <scheme val="minor"/>
+      <color rgb="FF3F3F76"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="8.0"/>
       <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
       <scheme val="minor"/>
+      <color rgb="FF000000"/>
     </font>
     <font>
-      <sz val="8"/>
+      <u/>
+      <sz val="11.0"/>
       <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
       <scheme val="minor"/>
+      <color theme="10"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="11"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FFFF0000"/>
+    </font>
+    <font>
+      <sz val="18.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF3F3F3F"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FFFA7D00"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FFFFFFFF"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FFFA7D00"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF006100"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF9C0006"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF9C6500"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="0"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF7F7F7F"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799980"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -301,18 +529,245 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFACCCEA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399980"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="64" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -320,35 +775,70 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="49">
     <cellStyle name="20% - 강조색1" xfId="3" builtinId="30"/>
+    <cellStyle name="20% - 강조색2" xfId="29" builtinId="34"/>
+    <cellStyle name="20% - 강조색3" xfId="33" builtinId="38"/>
+    <cellStyle name="20% - 강조색4" xfId="37" builtinId="42"/>
+    <cellStyle name="20% - 강조색5" xfId="41" builtinId="46"/>
+    <cellStyle name="20% - 강조색6" xfId="45" builtinId="50"/>
+    <cellStyle name="40% - 강조색1" xfId="26" builtinId="31"/>
+    <cellStyle name="40% - 강조색2" xfId="30" builtinId="35"/>
+    <cellStyle name="40% - 강조색3" xfId="34" builtinId="39"/>
+    <cellStyle name="40% - 강조색4" xfId="38" builtinId="43"/>
+    <cellStyle name="40% - 강조색5" xfId="42" builtinId="47"/>
+    <cellStyle name="40% - 강조색6" xfId="46" builtinId="51"/>
+    <cellStyle name="60% - 강조색1" xfId="27" builtinId="32"/>
+    <cellStyle name="60% - 강조색2" xfId="31" builtinId="36"/>
+    <cellStyle name="60% - 강조색3" xfId="35" builtinId="40"/>
+    <cellStyle name="60% - 강조색4" xfId="39" builtinId="44"/>
+    <cellStyle name="60% - 강조색5" xfId="43" builtinId="48"/>
+    <cellStyle name="60% - 강조색6" xfId="47" builtinId="52"/>
+    <cellStyle name="강조색1" xfId="25" builtinId="29"/>
+    <cellStyle name="강조색2" xfId="28" builtinId="33"/>
+    <cellStyle name="강조색3" xfId="32" builtinId="37"/>
+    <cellStyle name="강조색4" xfId="36" builtinId="41"/>
+    <cellStyle name="강조색5" xfId="40" builtinId="45"/>
+    <cellStyle name="강조색6" xfId="44" builtinId="49"/>
+    <cellStyle name="경고문" xfId="11" builtinId="11"/>
+    <cellStyle name="계산" xfId="18" builtinId="22"/>
+    <cellStyle name="나쁨" xfId="23" builtinId="27"/>
     <cellStyle name="메모" xfId="2" builtinId="10"/>
+    <cellStyle name="백분율" xfId="6" builtinId="5"/>
+    <cellStyle name="보통" xfId="24" builtinId="28"/>
+    <cellStyle name="설명텍스트" xfId="48" builtinId="53"/>
+    <cellStyle name="셀 확인" xfId="19" builtinId="23"/>
+    <cellStyle name="쉼표" xfId="4" builtinId="3"/>
+    <cellStyle name="쉼표[0]" xfId="7" builtinId="6"/>
+    <cellStyle name="연결된 셀" xfId="20" builtinId="24"/>
+    <cellStyle name="열어본 하이퍼링크" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="요약" xfId="21" builtinId="25"/>
     <cellStyle name="입력" xfId="1" builtinId="20"/>
+    <cellStyle name="제목" xfId="12" builtinId="15"/>
+    <cellStyle name="제목 1" xfId="13" builtinId="16"/>
+    <cellStyle name="제목 2" xfId="14" builtinId="17"/>
+    <cellStyle name="제목 3" xfId="15" builtinId="18"/>
+    <cellStyle name="제목 4" xfId="16" builtinId="19"/>
+    <cellStyle name="좋음" xfId="22" builtinId="26"/>
+    <cellStyle name="출력" xfId="17" builtinId="21"/>
+    <cellStyle name="통화" xfId="5" builtinId="4"/>
+    <cellStyle name="통화[0]" xfId="8" builtinId="7"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="9" builtinId="8" hidden="1"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -648,19 +1138,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="W19" sqref="W19"/>
+    <sheetView topLeftCell="A4" tabSelected="1" workbookViewId="0">
+      <selection activeCell="R26" sqref="R26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.500000"/>
   <cols>
-    <col min="1" max="16384" width="9" style="2"/>
+    <col min="1" max="16384" style="2" width="9.00500011" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20">
       <c r="A1" s="1"/>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -720,47 +1210,47 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20">
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20">
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
@@ -810,7 +1300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20">
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
@@ -860,7 +1350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
@@ -910,7 +1400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20">
       <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
@@ -960,7 +1450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20">
       <c r="A14" s="1" t="s">
         <v>30</v>
       </c>
@@ -1010,7 +1500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20">
       <c r="A15" s="1" t="s">
         <v>31</v>
       </c>
@@ -1060,7 +1550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20">
       <c r="A16" s="1" t="s">
         <v>32</v>
       </c>
@@ -1110,7 +1600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20">
       <c r="A17" s="1" t="s">
         <v>33</v>
       </c>
@@ -1160,7 +1650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20">
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
@@ -1210,7 +1700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20">
       <c r="A19" s="1" t="s">
         <v>35</v>
       </c>
@@ -1260,17 +1750,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20">
       <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20">
       <c r="A21" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20">
       <c r="A22" s="1" t="s">
         <v>41</v>
       </c>
@@ -1320,7 +1810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20">
       <c r="A23" s="1" t="s">
         <v>42</v>
       </c>
@@ -1370,17 +1860,107 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20">
       <c r="A24" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="C24" s="2">
+        <v>0</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0</v>
+      </c>
+      <c r="E24" s="2">
+        <v>1</v>
+      </c>
+      <c r="F24" s="2">
+        <v>1</v>
+      </c>
+      <c r="G24" s="2">
+        <v>1</v>
+      </c>
+      <c r="H24" s="2">
+        <v>0</v>
+      </c>
+      <c r="L24" s="2">
+        <v>1</v>
+      </c>
+      <c r="M24" s="2">
+        <v>0</v>
+      </c>
+      <c r="N24" s="2">
+        <v>0</v>
+      </c>
+      <c r="O24" s="2">
+        <v>0</v>
+      </c>
+      <c r="P24" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>0</v>
+      </c>
+      <c r="R24" s="2">
+        <v>0</v>
+      </c>
+      <c r="S24" s="2">
+        <v>0</v>
+      </c>
+      <c r="T24" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F25" s="2">
+        <v>1</v>
+      </c>
+      <c r="G25" s="2">
+        <v>0</v>
+      </c>
+      <c r="H25" s="2">
+        <v>1</v>
+      </c>
+      <c r="L25" s="2">
+        <v>1</v>
+      </c>
+      <c r="M25" s="2">
+        <v>0</v>
+      </c>
+      <c r="N25" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="O25" s="2">
+        <v>0</v>
+      </c>
+      <c r="P25" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>0</v>
+      </c>
+      <c r="R25" s="2">
+        <v>1</v>
+      </c>
+      <c r="S25" s="2">
+        <v>0</v>
+      </c>
+      <c r="T25" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
       <c r="A26" s="4" t="s">
         <v>39</v>
       </c>
@@ -1389,81 +1969,81 @@
         <v>0</v>
       </c>
       <c r="C26" s="4">
-        <f t="shared" ref="C26:T26" si="0">SUM(C2:C25)</f>
+        <f>SUM(C2:C25)</f>
         <v>4</v>
       </c>
       <c r="D26" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(D2:D25)</f>
         <v>3.5</v>
       </c>
       <c r="E26" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(E2:E25)</f>
+        <v>8.5</v>
+      </c>
+      <c r="F26" s="4">
+        <f>SUM(F2:F25)</f>
+        <v>12</v>
+      </c>
+      <c r="G26" s="4">
+        <f>SUM(G2:G25)</f>
+        <v>12</v>
+      </c>
+      <c r="H26" s="4">
+        <f>SUM(H2:H25)</f>
+        <v>12</v>
+      </c>
+      <c r="I26" s="4">
+        <f>SUM(I2:I25)</f>
+        <v>0</v>
+      </c>
+      <c r="J26" s="4">
+        <f>SUM(J2:J25)</f>
+        <v>0</v>
+      </c>
+      <c r="K26" s="4">
+        <f>SUM(K2:K25)</f>
+        <v>0</v>
+      </c>
+      <c r="L26" s="4">
+        <f>SUM(L2:L25)</f>
+        <v>9</v>
+      </c>
+      <c r="M26" s="4">
+        <f>SUM(M2:M25)</f>
+        <v>5.5</v>
+      </c>
+      <c r="N26" s="4">
+        <f>SUM(N2:N25)</f>
+        <v>4.5</v>
+      </c>
+      <c r="O26" s="4">
+        <f>SUM(O2:O25)</f>
+        <v>0</v>
+      </c>
+      <c r="P26" s="4">
+        <f>SUM(P2:P25)</f>
         <v>7</v>
       </c>
-      <c r="F26" s="4">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="G26" s="4">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="H26" s="4">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="I26" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J26" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K26" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L26" s="4">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="M26" s="4">
-        <f t="shared" si="0"/>
-        <v>5.5</v>
-      </c>
-      <c r="N26" s="4">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="O26" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P26" s="4">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
       <c r="Q26" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(Q2:Q25)</f>
         <v>3</v>
       </c>
       <c r="R26" s="4">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f>SUM(R2:R25)</f>
+        <v>8</v>
       </c>
       <c r="S26" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(S2:S25)</f>
         <v>7.5</v>
       </c>
       <c r="T26" s="4">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f>SUM(T2:T25)</f>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/PPT data/2 week/정답제출/인원별 맞은개수.xlsx
+++ b/PPT data/2 week/정답제출/인원별 맞은개수.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Polaris Office Sheet" lastEdited="6" lowestEdited="7" rupBuild="8.1.852.35783"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\Deep\PPT data\2 week\정답제출\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="590" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="590"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -152,157 +156,55 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="64" formatCode="&quot;₩&quot;#,##0;\\\-&quot;₩&quot;#,##0"/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <scheme val="minor"/>
-      <color theme="1"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
-      <color rgb="FF3F3F76"/>
-    </font>
-    <font>
-      <sz val="8.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color rgb="FF000000"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
-      <color theme="10"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
-      <color theme="11"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
-      <color rgb="FFFF0000"/>
-    </font>
-    <font>
-      <sz val="18.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color theme="3"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color theme="3"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color theme="3"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color theme="3"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color rgb="FF3F3F3F"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color rgb="FFFA7D00"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color rgb="FFFFFFFF"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color rgb="FFFA7D00"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color theme="1"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color rgb="FF006100"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color rgb="FF9C0006"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color rgb="FF9C6500"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color theme="0"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color theme="1"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color rgb="FF7F7F7F"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -318,180 +220,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799980"/>
+        <fgColor theme="4" tint="0.79995117038483843"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599990"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599990"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599990"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599990"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599990"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599990"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -529,245 +263,24 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color rgb="FFACCCEA"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399980"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="64" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -784,61 +297,28 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="6">
     <cellStyle name="20% - 강조색1" xfId="3" builtinId="30"/>
-    <cellStyle name="20% - 강조색2" xfId="29" builtinId="34"/>
-    <cellStyle name="20% - 강조색3" xfId="33" builtinId="38"/>
-    <cellStyle name="20% - 강조색4" xfId="37" builtinId="42"/>
-    <cellStyle name="20% - 강조색5" xfId="41" builtinId="46"/>
-    <cellStyle name="20% - 강조색6" xfId="45" builtinId="50"/>
-    <cellStyle name="40% - 강조색1" xfId="26" builtinId="31"/>
-    <cellStyle name="40% - 강조색2" xfId="30" builtinId="35"/>
-    <cellStyle name="40% - 강조색3" xfId="34" builtinId="39"/>
-    <cellStyle name="40% - 강조색4" xfId="38" builtinId="43"/>
-    <cellStyle name="40% - 강조색5" xfId="42" builtinId="47"/>
-    <cellStyle name="40% - 강조색6" xfId="46" builtinId="51"/>
-    <cellStyle name="60% - 강조색1" xfId="27" builtinId="32"/>
-    <cellStyle name="60% - 강조색2" xfId="31" builtinId="36"/>
-    <cellStyle name="60% - 강조색3" xfId="35" builtinId="40"/>
-    <cellStyle name="60% - 강조색4" xfId="39" builtinId="44"/>
-    <cellStyle name="60% - 강조색5" xfId="43" builtinId="48"/>
-    <cellStyle name="60% - 강조색6" xfId="47" builtinId="52"/>
-    <cellStyle name="강조색1" xfId="25" builtinId="29"/>
-    <cellStyle name="강조색2" xfId="28" builtinId="33"/>
-    <cellStyle name="강조색3" xfId="32" builtinId="37"/>
-    <cellStyle name="강조색4" xfId="36" builtinId="41"/>
-    <cellStyle name="강조색5" xfId="40" builtinId="45"/>
-    <cellStyle name="강조색6" xfId="44" builtinId="49"/>
-    <cellStyle name="경고문" xfId="11" builtinId="11"/>
-    <cellStyle name="계산" xfId="18" builtinId="22"/>
-    <cellStyle name="나쁨" xfId="23" builtinId="27"/>
     <cellStyle name="메모" xfId="2" builtinId="10"/>
-    <cellStyle name="백분율" xfId="6" builtinId="5"/>
-    <cellStyle name="보통" xfId="24" builtinId="28"/>
-    <cellStyle name="설명텍스트" xfId="48" builtinId="53"/>
-    <cellStyle name="셀 확인" xfId="19" builtinId="23"/>
-    <cellStyle name="쉼표" xfId="4" builtinId="3"/>
-    <cellStyle name="쉼표[0]" xfId="7" builtinId="6"/>
-    <cellStyle name="연결된 셀" xfId="20" builtinId="24"/>
-    <cellStyle name="열어본 하이퍼링크" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="요약" xfId="21" builtinId="25"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="입력" xfId="1" builtinId="20"/>
-    <cellStyle name="제목" xfId="12" builtinId="15"/>
-    <cellStyle name="제목 1" xfId="13" builtinId="16"/>
-    <cellStyle name="제목 2" xfId="14" builtinId="17"/>
-    <cellStyle name="제목 3" xfId="15" builtinId="18"/>
-    <cellStyle name="제목 4" xfId="16" builtinId="19"/>
-    <cellStyle name="좋음" xfId="22" builtinId="26"/>
-    <cellStyle name="출력" xfId="17" builtinId="21"/>
-    <cellStyle name="통화" xfId="5" builtinId="4"/>
-    <cellStyle name="통화[0]" xfId="8" builtinId="7"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="하이퍼링크" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="4" builtinId="8" hidden="1"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1138,19 +618,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" tabSelected="1" workbookViewId="0">
-      <selection activeCell="R26" sqref="R26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.500000"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" style="2" width="9.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="1" max="1" width="9" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -1210,47 +691,137 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:20">
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0</v>
+      </c>
+      <c r="N2" s="2">
+        <v>1</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>1</v>
+      </c>
+      <c r="R2" s="2">
+        <v>0</v>
+      </c>
+      <c r="S2" s="2">
+        <v>0</v>
+      </c>
+      <c r="T2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:20">
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0</v>
+      </c>
+      <c r="N3" s="2">
+        <v>1</v>
+      </c>
+      <c r="O3" s="2">
+        <v>0</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0</v>
+      </c>
+      <c r="R3" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="S3" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="T3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
@@ -1300,7 +871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
@@ -1350,7 +921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
@@ -1400,7 +971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
@@ -1450,7 +1021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>30</v>
       </c>
@@ -1500,7 +1071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>31</v>
       </c>
@@ -1550,7 +1121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>32</v>
       </c>
@@ -1600,7 +1171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>33</v>
       </c>
@@ -1650,7 +1221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
@@ -1700,7 +1271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>35</v>
       </c>
@@ -1750,17 +1321,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>41</v>
       </c>
@@ -1810,7 +1381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>42</v>
       </c>
@@ -1860,7 +1431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>38</v>
       </c>
@@ -1910,7 +1481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>43</v>
       </c>
@@ -1960,90 +1531,90 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B26" s="4">
-        <f>SUM(B2:B25)</f>
+        <f t="shared" ref="B26:T26" si="0">SUM(B2:B25)</f>
         <v>0</v>
       </c>
       <c r="C26" s="4">
-        <f>SUM(C2:C25)</f>
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D26" s="4">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+      <c r="E26" s="4">
+        <f t="shared" si="0"/>
+        <v>9.65</v>
+      </c>
+      <c r="F26" s="4">
+        <f t="shared" si="0"/>
+        <v>12.3</v>
+      </c>
+      <c r="G26" s="4">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H26" s="4">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="I26" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="4">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="M26" s="4">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="N26" s="4">
+        <f t="shared" si="0"/>
+        <v>6.5</v>
+      </c>
+      <c r="O26" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P26" s="4">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="Q26" s="4">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D26" s="4">
-        <f>SUM(D2:D25)</f>
-        <v>3.5</v>
-      </c>
-      <c r="E26" s="4">
-        <f>SUM(E2:E25)</f>
-        <v>8.5</v>
-      </c>
-      <c r="F26" s="4">
-        <f>SUM(F2:F25)</f>
-        <v>12</v>
-      </c>
-      <c r="G26" s="4">
-        <f>SUM(G2:G25)</f>
-        <v>12</v>
-      </c>
-      <c r="H26" s="4">
-        <f>SUM(H2:H25)</f>
-        <v>12</v>
-      </c>
-      <c r="I26" s="4">
-        <f>SUM(I2:I25)</f>
-        <v>0</v>
-      </c>
-      <c r="J26" s="4">
-        <f>SUM(J2:J25)</f>
-        <v>0</v>
-      </c>
-      <c r="K26" s="4">
-        <f>SUM(K2:K25)</f>
-        <v>0</v>
-      </c>
-      <c r="L26" s="4">
-        <f>SUM(L2:L25)</f>
-        <v>9</v>
-      </c>
-      <c r="M26" s="4">
-        <f>SUM(M2:M25)</f>
-        <v>5.5</v>
-      </c>
-      <c r="N26" s="4">
-        <f>SUM(N2:N25)</f>
-        <v>4.5</v>
-      </c>
-      <c r="O26" s="4">
-        <f>SUM(O2:O25)</f>
-        <v>0</v>
-      </c>
-      <c r="P26" s="4">
-        <f>SUM(P2:P25)</f>
-        <v>7</v>
-      </c>
-      <c r="Q26" s="4">
-        <f>SUM(Q2:Q25)</f>
-        <v>3</v>
-      </c>
       <c r="R26" s="4">
-        <f>SUM(R2:R25)</f>
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>8.3000000000000007</v>
       </c>
       <c r="S26" s="4">
-        <f>SUM(S2:S25)</f>
-        <v>7.5</v>
+        <f t="shared" si="0"/>
+        <v>7.65</v>
       </c>
       <c r="T26" s="4">
-        <f>SUM(T2:T25)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/PPT data/2 week/정답제출/인원별 맞은개수.xlsx
+++ b/PPT data/2 week/정답제출/인원별 맞은개수.xlsx
@@ -1,20 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\Deep\PPT data\2 week\정답제출\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이용준\Desktop\딥러닝 스터디 관련 자료\Deep\DeepLearningStudy\PPT data\2 week\정답제출\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65FB1F33-CC69-4E97-AD70-EDF14C257BCA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="590"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -156,7 +165,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -288,7 +297,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -618,20 +627,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9" style="2" customWidth="1"/>
     <col min="2" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -691,7 +700,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -741,7 +750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
@@ -791,37 +800,127 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1</v>
+      </c>
+      <c r="L8" s="2">
+        <v>1</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1</v>
+      </c>
+      <c r="N8" s="2">
+        <v>1</v>
+      </c>
+      <c r="O8" s="2">
+        <v>0</v>
+      </c>
+      <c r="P8" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>0</v>
+      </c>
+      <c r="R8" s="2">
+        <v>0</v>
+      </c>
+      <c r="S8" s="2">
+        <v>0</v>
+      </c>
+      <c r="T8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1</v>
+      </c>
+      <c r="L9" s="2">
+        <v>1</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1</v>
+      </c>
+      <c r="N9" s="2">
+        <v>1</v>
+      </c>
+      <c r="O9" s="2">
+        <v>0</v>
+      </c>
+      <c r="P9" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>1</v>
+      </c>
+      <c r="R9" s="2">
+        <v>1</v>
+      </c>
+      <c r="S9" s="2">
+        <v>1</v>
+      </c>
+      <c r="T9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
@@ -871,7 +970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
@@ -921,7 +1020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
@@ -971,7 +1070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
@@ -1021,7 +1120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>30</v>
       </c>
@@ -1071,7 +1170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>31</v>
       </c>
@@ -1121,7 +1220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>32</v>
       </c>
@@ -1171,7 +1270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>33</v>
       </c>
@@ -1221,7 +1320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
@@ -1271,7 +1370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>35</v>
       </c>
@@ -1321,17 +1420,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>41</v>
       </c>
@@ -1381,7 +1480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
         <v>42</v>
       </c>
@@ -1431,7 +1530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>38</v>
       </c>
@@ -1481,7 +1580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>43</v>
       </c>
@@ -1531,7 +1630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A26" s="4" t="s">
         <v>39</v>
       </c>
@@ -1541,27 +1640,27 @@
       </c>
       <c r="C26" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D26" s="4">
         <f t="shared" si="0"/>
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="E26" s="4">
         <f t="shared" si="0"/>
-        <v>9.65</v>
+        <v>11.65</v>
       </c>
       <c r="F26" s="4">
         <f t="shared" si="0"/>
-        <v>12.3</v>
+        <v>13.3</v>
       </c>
       <c r="G26" s="4">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H26" s="4">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I26" s="4">
         <f t="shared" si="0"/>
@@ -1577,15 +1676,15 @@
       </c>
       <c r="L26" s="4">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="M26" s="4">
         <f t="shared" si="0"/>
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="N26" s="4">
         <f t="shared" si="0"/>
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="O26" s="4">
         <f t="shared" si="0"/>
@@ -1593,23 +1692,23 @@
       </c>
       <c r="P26" s="4">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Q26" s="4">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R26" s="4">
         <f t="shared" si="0"/>
-        <v>8.3000000000000007</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="S26" s="4">
         <f t="shared" si="0"/>
-        <v>7.65</v>
+        <v>8.65</v>
       </c>
       <c r="T26" s="4">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/PPT data/2 week/정답제출/인원별 맞은개수.xlsx
+++ b/PPT data/2 week/정답제출/인원별 맞은개수.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\딥러닝\DeepLearningStudy\PPT data\2 week\정답제출\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2018305008\Desktop\keras study\DeepLearningStudy\PPT data\2 week\정답제출\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -619,7 +619,7 @@
   <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1214,6 +1214,9 @@
       <c r="A12" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
       <c r="C12" s="2">
         <v>1</v>
       </c>
@@ -1230,6 +1233,12 @@
         <v>1</v>
       </c>
       <c r="H12" s="2">
+        <v>1</v>
+      </c>
+      <c r="J12" s="2">
+        <v>1</v>
+      </c>
+      <c r="K12" s="2">
         <v>1</v>
       </c>
       <c r="L12" s="2">
@@ -1264,6 +1273,9 @@
       <c r="A13" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
       <c r="C13" s="2">
         <v>0</v>
       </c>
@@ -1281,6 +1293,12 @@
       </c>
       <c r="H13" s="2">
         <v>1</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0</v>
       </c>
       <c r="L13" s="2">
         <v>0</v>
@@ -1314,6 +1332,9 @@
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="B14" s="2">
+        <v>0</v>
+      </c>
       <c r="C14" s="2">
         <v>1</v>
       </c>
@@ -1331,6 +1352,12 @@
       </c>
       <c r="H14" s="2">
         <v>1</v>
+      </c>
+      <c r="J14" s="2">
+        <v>1</v>
+      </c>
+      <c r="K14" s="2">
+        <v>0</v>
       </c>
       <c r="L14" s="2">
         <v>0</v>
@@ -1364,6 +1391,9 @@
       <c r="A15" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="B15" s="2">
+        <v>1</v>
+      </c>
       <c r="C15" s="2">
         <v>0</v>
       </c>
@@ -1381,6 +1411,12 @@
       </c>
       <c r="H15" s="2">
         <v>1</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0</v>
+      </c>
+      <c r="K15" s="2">
+        <v>0</v>
       </c>
       <c r="L15" s="2">
         <v>1</v>
@@ -1414,6 +1450,9 @@
       <c r="A16" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="B16" s="2">
+        <v>0</v>
+      </c>
       <c r="C16" s="2">
         <v>0</v>
       </c>
@@ -1430,6 +1469,12 @@
         <v>1</v>
       </c>
       <c r="H16" s="2">
+        <v>1</v>
+      </c>
+      <c r="J16" s="2">
+        <v>1</v>
+      </c>
+      <c r="K16" s="2">
         <v>1</v>
       </c>
       <c r="L16" s="2">
@@ -1464,6 +1509,9 @@
       <c r="A17" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="B17" s="2">
+        <v>1</v>
+      </c>
       <c r="C17" s="2">
         <v>0</v>
       </c>
@@ -1481,6 +1529,12 @@
       </c>
       <c r="H17" s="2">
         <v>1</v>
+      </c>
+      <c r="J17" s="2">
+        <v>1</v>
+      </c>
+      <c r="K17" s="2">
+        <v>0</v>
       </c>
       <c r="L17" s="2">
         <v>1</v>
@@ -1514,6 +1568,9 @@
       <c r="A18" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="B18" s="2">
+        <v>0</v>
+      </c>
       <c r="C18" s="2">
         <v>0</v>
       </c>
@@ -1531,6 +1588,12 @@
       </c>
       <c r="H18" s="2">
         <v>1</v>
+      </c>
+      <c r="J18" s="2">
+        <v>0</v>
+      </c>
+      <c r="K18" s="2">
+        <v>0</v>
       </c>
       <c r="L18" s="2">
         <v>1</v>
@@ -1564,6 +1627,9 @@
       <c r="A19" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="B19" s="2">
+        <v>0</v>
+      </c>
       <c r="C19" s="2">
         <v>0</v>
       </c>
@@ -1581,6 +1647,12 @@
       </c>
       <c r="H19" s="2">
         <v>1</v>
+      </c>
+      <c r="J19" s="2">
+        <v>0</v>
+      </c>
+      <c r="K19" s="2">
+        <v>0</v>
       </c>
       <c r="L19" s="2">
         <v>0</v>
@@ -1826,7 +1898,7 @@
       </c>
       <c r="B26" s="4">
         <f t="shared" ref="B26:T26" si="0">SUM(B2:B25)</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C26" s="4">
         <f t="shared" si="0"/>
@@ -1858,11 +1930,11 @@
       </c>
       <c r="J26" s="4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K26" s="4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L26" s="4">
         <f t="shared" si="0"/>

--- a/PPT data/2 week/정답제출/인원별 맞은개수.xlsx
+++ b/PPT data/2 week/정답제출/인원별 맞은개수.xlsx
@@ -1,20 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2018305008\Desktop\keras study\DeepLearningStudy\PPT data\2 week\정답제출\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DeepLearning Study\발표자료\DeepLearningStudy\PPT data\2 week\정답제출\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F7F404-EE27-43CC-ACDF-679A9ABF70AF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18405" windowHeight="7005" tabRatio="590"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -156,7 +165,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -285,7 +294,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -301,14 +310,17 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="20% - 강조색1" xfId="3"/>
-    <cellStyle name="메모" xfId="2"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="5"/>
-    <cellStyle name="입력" xfId="1"/>
+    <cellStyle name="20% - 강조색1" xfId="3" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="메모" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="5" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="입력" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="하이퍼링크" xfId="4"/>
+    <cellStyle name="하이퍼링크" xfId="4" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -614,12 +626,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:U26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="U3" sqref="U3:U25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -632,7 +644,7 @@
     <col min="21" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -692,7 +704,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>30</v>
       </c>
@@ -741,8 +753,12 @@
       <c r="T2" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U2" s="5">
+        <f>SUM(B2:T2)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>39</v>
       </c>
@@ -791,8 +807,12 @@
       <c r="T3" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U3" s="5">
+        <f t="shared" ref="U3:U25" si="0">SUM(B3:T3)</f>
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>43</v>
       </c>
@@ -850,8 +870,12 @@
       <c r="T4" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U4" s="5">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>36</v>
       </c>
@@ -909,8 +933,12 @@
       <c r="T5" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U5" s="5">
+        <f t="shared" si="0"/>
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>38</v>
       </c>
@@ -959,8 +987,12 @@
       <c r="T6" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U6" s="5">
+        <f t="shared" si="0"/>
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>37</v>
       </c>
@@ -1009,8 +1041,12 @@
       <c r="T7" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U7" s="5">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>34</v>
       </c>
@@ -1059,8 +1095,12 @@
       <c r="T8" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U8" s="5">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
@@ -1109,8 +1149,12 @@
       <c r="T9" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U9" s="5">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
@@ -1159,8 +1203,12 @@
       <c r="T10" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U10" s="5">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>41</v>
       </c>
@@ -1209,8 +1257,12 @@
       <c r="T11" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U11" s="5">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>42</v>
       </c>
@@ -1268,8 +1320,12 @@
       <c r="T12" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U12" s="5">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>35</v>
       </c>
@@ -1327,8 +1383,12 @@
       <c r="T13" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U13" s="5">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
@@ -1386,8 +1446,12 @@
       <c r="T14" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U14" s="5">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>40</v>
       </c>
@@ -1445,8 +1509,12 @@
       <c r="T15" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U15" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>27</v>
       </c>
@@ -1504,8 +1572,12 @@
       <c r="T16" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U16" s="5">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>23</v>
       </c>
@@ -1563,8 +1635,12 @@
       <c r="T17" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U17" s="5">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>24</v>
       </c>
@@ -1622,8 +1698,12 @@
       <c r="T18" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U18" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>25</v>
       </c>
@@ -1681,18 +1761,30 @@
       <c r="T19" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U19" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U20" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U21" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>31</v>
       </c>
@@ -1741,8 +1833,12 @@
       <c r="T22" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U22" s="5">
+        <f t="shared" si="0"/>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>32</v>
       </c>
@@ -1791,8 +1887,12 @@
       <c r="T23" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U23" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>26</v>
       </c>
@@ -1841,8 +1941,12 @@
       <c r="T24" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U24" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>33</v>
       </c>
@@ -1891,85 +1995,89 @@
       <c r="T25" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U25" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B26" s="4">
-        <f t="shared" ref="B26:T26" si="0">SUM(B2:B25)</f>
+        <f t="shared" ref="B26:T26" si="1">SUM(B2:B25)</f>
         <v>6</v>
       </c>
       <c r="C26" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="D26" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
       <c r="E26" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15.65</v>
       </c>
       <c r="F26" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17.3</v>
       </c>
       <c r="G26" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="H26" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16.25</v>
       </c>
       <c r="I26" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J26" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="K26" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="L26" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="M26" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.5</v>
       </c>
       <c r="N26" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10.5</v>
       </c>
       <c r="O26" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="P26" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="Q26" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.5</v>
       </c>
       <c r="R26" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12.3</v>
       </c>
       <c r="S26" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12.65</v>
       </c>
       <c r="T26" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
     </row>

--- a/PPT data/2 week/정답제출/인원별 맞은개수.xlsx
+++ b/PPT data/2 week/정답제출/인원별 맞은개수.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DeepLearning Study\발표자료\DeepLearningStudy\PPT data\2 week\정답제출\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이용준\Desktop\deep\Deep\DeepLearningStudy\PPT data\2 week\정답제출\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F7F404-EE27-43CC-ACDF-679A9ABF70AF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82400D33-DC5D-448E-BC77-54A9A6D9C773}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -631,10 +631,10 @@
   <dimension ref="A1:U26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="U3" sqref="U3:U25"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9" style="2" customWidth="1"/>
     <col min="2" max="2" width="9" style="2"/>
@@ -644,7 +644,7 @@
     <col min="21" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -704,7 +704,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>30</v>
       </c>
@@ -758,7 +758,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>39</v>
       </c>
@@ -812,7 +812,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>43</v>
       </c>
@@ -875,7 +875,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>36</v>
       </c>
@@ -938,7 +938,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>38</v>
       </c>
@@ -992,7 +992,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>37</v>
       </c>
@@ -1046,10 +1046,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
       <c r="C8" s="2">
         <v>1</v>
       </c>
@@ -1067,6 +1070,12 @@
       </c>
       <c r="H8" s="2">
         <v>1</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0</v>
       </c>
       <c r="L8" s="2">
         <v>1</v>
@@ -1097,13 +1106,16 @@
       </c>
       <c r="U8" s="5">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
       <c r="C9" s="2">
         <v>1</v>
       </c>
@@ -1120,6 +1132,12 @@
         <v>1</v>
       </c>
       <c r="H9" s="2">
+        <v>1</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1</v>
+      </c>
+      <c r="K9" s="2">
         <v>1</v>
       </c>
       <c r="L9" s="2">
@@ -1151,10 +1169,10 @@
       </c>
       <c r="U9" s="5">
         <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
@@ -1208,7 +1226,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>41</v>
       </c>
@@ -1262,7 +1280,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>42</v>
       </c>
@@ -1325,7 +1343,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>35</v>
       </c>
@@ -1388,7 +1406,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
@@ -1451,7 +1469,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>40</v>
       </c>
@@ -1514,7 +1532,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>27</v>
       </c>
@@ -1577,7 +1595,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>23</v>
       </c>
@@ -1640,7 +1658,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>24</v>
       </c>
@@ -1703,7 +1721,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>25</v>
       </c>
@@ -1766,7 +1784,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
@@ -1775,7 +1793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
@@ -1784,7 +1802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>31</v>
       </c>
@@ -1838,7 +1856,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
         <v>32</v>
       </c>
@@ -1892,7 +1910,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>26</v>
       </c>
@@ -1946,7 +1964,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>33</v>
       </c>
@@ -2000,13 +2018,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A26" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B26" s="4">
         <f t="shared" ref="B26:T26" si="1">SUM(B2:B25)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C26" s="4">
         <f t="shared" si="1"/>
@@ -2038,11 +2056,11 @@
       </c>
       <c r="J26" s="4">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K26" s="4">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L26" s="4">
         <f t="shared" si="1"/>

--- a/PPT data/2 week/정답제출/인원별 맞은개수.xlsx
+++ b/PPT data/2 week/정답제출/인원별 맞은개수.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이용준\Desktop\deep\Deep\DeepLearningStudy\PPT data\2 week\정답제출\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\Deep\PPT data\2 week\정답제출\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82400D33-DC5D-448E-BC77-54A9A6D9C773}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="590"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -165,7 +164,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -315,12 +314,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="20% - 강조색1" xfId="3" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="메모" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="5" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="입력" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="20% - 강조색1" xfId="3"/>
+    <cellStyle name="메모" xfId="2"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="5"/>
+    <cellStyle name="입력" xfId="1"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="하이퍼링크" xfId="4" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="하이퍼링크" xfId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -626,15 +625,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:U26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="2" customWidth="1"/>
     <col min="2" max="2" width="9" style="2"/>
@@ -644,7 +643,7 @@
     <col min="21" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -704,10 +703,13 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
       <c r="C2" s="2">
         <v>1</v>
       </c>
@@ -724,6 +726,12 @@
         <v>0</v>
       </c>
       <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2">
         <v>0</v>
       </c>
       <c r="L2" s="2">
@@ -755,13 +763,16 @@
       </c>
       <c r="U2" s="5">
         <f>SUM(B2:T2)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="B3" s="2">
+        <v>0.45</v>
+      </c>
       <c r="C3" s="2">
         <v>0</v>
       </c>
@@ -780,6 +791,12 @@
       <c r="H3" s="2">
         <v>0</v>
       </c>
+      <c r="J3" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0.15</v>
+      </c>
       <c r="L3" s="2">
         <v>0</v>
       </c>
@@ -809,10 +826,10 @@
       </c>
       <c r="U3" s="5">
         <f t="shared" ref="U3:U25" si="0">SUM(B3:T3)</f>
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.4">
+        <v>2.9499999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>43</v>
       </c>
@@ -875,7 +892,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>36</v>
       </c>
@@ -938,7 +955,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>38</v>
       </c>
@@ -992,7 +1009,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>37</v>
       </c>
@@ -1046,7 +1063,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>34</v>
       </c>
@@ -1109,7 +1126,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
@@ -1172,7 +1189,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
@@ -1226,7 +1243,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>41</v>
       </c>
@@ -1280,7 +1297,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>42</v>
       </c>
@@ -1343,7 +1360,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>35</v>
       </c>
@@ -1406,7 +1423,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
@@ -1469,7 +1486,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>40</v>
       </c>
@@ -1532,7 +1549,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>27</v>
       </c>
@@ -1595,7 +1612,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>23</v>
       </c>
@@ -1658,7 +1675,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>24</v>
       </c>
@@ -1721,7 +1738,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>25</v>
       </c>
@@ -1784,7 +1801,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
@@ -1793,7 +1810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
@@ -1802,7 +1819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>31</v>
       </c>
@@ -1856,7 +1873,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>32</v>
       </c>
@@ -1910,7 +1927,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>26</v>
       </c>
@@ -1964,7 +1981,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>33</v>
       </c>
@@ -2018,13 +2035,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B26" s="4">
         <f t="shared" ref="B26:T26" si="1">SUM(B2:B25)</f>
-        <v>8</v>
+        <v>9.4499999999999993</v>
       </c>
       <c r="C26" s="4">
         <f t="shared" si="1"/>
@@ -2056,11 +2073,11 @@
       </c>
       <c r="J26" s="4">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>8.4499999999999993</v>
       </c>
       <c r="K26" s="4">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>5.15</v>
       </c>
       <c r="L26" s="4">
         <f t="shared" si="1"/>

--- a/PPT data/2 week/정답제출/인원별 맞은개수.xlsx
+++ b/PPT data/2 week/정답제출/인원별 맞은개수.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr codeName="ThisWorkbook"/>
+  <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="8.1.852.35783"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13965" windowHeight="11790" tabRatio="590"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="580" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <definedNames/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -152,55 +153,147 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <numFmts count="1">
+    <numFmt numFmtId="64" formatCode="&quot;₩&quot;#,##0;\\\-&quot;₩&quot;#,##0"/>
+  </numFmts>
+  <fonts count="23">
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FF3F3F76"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <u/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FF0563C1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <u/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FF954F72"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="8.0"/>
+      <name val="돋움"/>
       <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="돋움"/>
-      <family val="3"/>
-      <charset val="129"/>
+      <u/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="10"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="11"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FFFF0000"/>
+    </font>
+    <font>
+      <sz val="18.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FF3F3F3F"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FFFA7D00"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FFFFFFFF"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FFFA7D00"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FF006100"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FF9C0006"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FF9C6500"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="0"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FF7F7F7F"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -220,8 +313,182 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -259,18 +526,125 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFACCCEA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399980"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
@@ -279,12 +653,156 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="64" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="9" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -293,23 +811,66 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="54">
+    <cellStyle name="20% - 강조색1" xfId="30" builtinId="30"/>
+    <cellStyle name="20% - 강조색2" xfId="34" builtinId="34"/>
+    <cellStyle name="20% - 강조색3" xfId="38" builtinId="38"/>
+    <cellStyle name="20% - 강조색4" xfId="42" builtinId="42"/>
+    <cellStyle name="20% - 강조색5" xfId="46" builtinId="46"/>
+    <cellStyle name="20% - 강조색6" xfId="50" builtinId="50"/>
+    <cellStyle name="40% - 강조색1" xfId="31" builtinId="31"/>
+    <cellStyle name="40% - 강조색2" xfId="35" builtinId="35"/>
+    <cellStyle name="40% - 강조색3" xfId="39" builtinId="39"/>
+    <cellStyle name="40% - 강조색4" xfId="43" builtinId="43"/>
+    <cellStyle name="40% - 강조색5" xfId="47" builtinId="47"/>
+    <cellStyle name="40% - 강조색6" xfId="51" builtinId="51"/>
+    <cellStyle name="60% - 강조색1" xfId="32" builtinId="32"/>
+    <cellStyle name="60% - 강조색2" xfId="36" builtinId="36"/>
+    <cellStyle name="60% - 강조색3" xfId="40" builtinId="40"/>
+    <cellStyle name="60% - 강조색4" xfId="44" builtinId="44"/>
+    <cellStyle name="60% - 강조색5" xfId="48" builtinId="48"/>
+    <cellStyle name="60% - 강조색6" xfId="52" builtinId="52"/>
+    <cellStyle name="강조색1" xfId="29" builtinId="29"/>
+    <cellStyle name="강조색2" xfId="33" builtinId="33"/>
+    <cellStyle name="강조색3" xfId="37" builtinId="37"/>
+    <cellStyle name="강조색4" xfId="41" builtinId="41"/>
+    <cellStyle name="강조색5" xfId="45" builtinId="45"/>
+    <cellStyle name="강조색6" xfId="49" builtinId="49"/>
+    <cellStyle name="경고문" xfId="14" builtinId="11"/>
+    <cellStyle name="계산" xfId="22" builtinId="22"/>
+    <cellStyle name="나쁨" xfId="27" builtinId="27"/>
+    <cellStyle name="메모" xfId="13" builtinId="10"/>
+    <cellStyle name="백분율" xfId="8" builtinId="5"/>
+    <cellStyle name="보통" xfId="28" builtinId="28"/>
+    <cellStyle name="설명텍스트" xfId="53" builtinId="53"/>
+    <cellStyle name="셀 확인" xfId="23" builtinId="23"/>
+    <cellStyle name="쉼표" xfId="6" builtinId="3"/>
+    <cellStyle name="쉼표[0]" xfId="9" builtinId="6"/>
+    <cellStyle name="연결된 셀" xfId="24" builtinId="24"/>
+    <cellStyle name="열어본 하이퍼링크" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="요약" xfId="25" builtinId="25"/>
+    <cellStyle name="입력" xfId="20" builtinId="20"/>
+    <cellStyle name="제목" xfId="15" builtinId="15"/>
+    <cellStyle name="제목 1" xfId="16" builtinId="16"/>
+    <cellStyle name="제목 2" xfId="17" builtinId="17"/>
+    <cellStyle name="제목 3" xfId="18" builtinId="18"/>
+    <cellStyle name="제목 4" xfId="19" builtinId="19"/>
+    <cellStyle name="좋음" xfId="26" builtinId="26"/>
+    <cellStyle name="출력" xfId="21" builtinId="21"/>
+    <cellStyle name="통화" xfId="7" builtinId="4"/>
+    <cellStyle name="통화[0]" xfId="10" builtinId="7"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="20% - 강조색1" xfId="3"/>
     <cellStyle name="메모" xfId="2"/>
     <cellStyle name="열어 본 하이퍼링크" xfId="5"/>
     <cellStyle name="입력" xfId="1"/>
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="하이퍼링크" xfId="4"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -605,20 +1166,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:U26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView topLeftCell="B4" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="T29" sqref="T29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9.00000000" defaultRowHeight="16.500000"/>
   <cols>
-    <col min="1" max="1" width="9" style="2" customWidth="1"/>
-    <col min="2" max="8" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9" style="2"/>
-    <col min="10" max="20" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9" style="2"/>
+    <col min="1" max="1" style="2" width="9.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="8" style="2" width="9.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="9" max="9" style="2" width="9.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="10" max="20" style="2" width="9.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="21" max="16384" style="2" width="9.00500011" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
@@ -739,7 +1299,7 @@
       <c r="T2" s="2">
         <v>0</v>
       </c>
-      <c r="U2" s="5">
+      <c r="U2" s="2">
         <f>SUM(B2:T2)</f>
         <v>5</v>
       </c>
@@ -802,9 +1362,9 @@
       <c r="T3" s="2">
         <v>0</v>
       </c>
-      <c r="U3" s="5">
-        <f t="shared" ref="U3:U25" si="0">SUM(B3:T3)</f>
-        <v>2.9499999999999997</v>
+      <c r="U3" s="2">
+        <f>SUM(B3:T3)</f>
+        <v>2.95</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -865,8 +1425,8 @@
       <c r="T4" s="2">
         <v>1</v>
       </c>
-      <c r="U4" s="5">
-        <f t="shared" si="0"/>
+      <c r="U4" s="2">
+        <f>SUM(B4:T4)</f>
         <v>13</v>
       </c>
     </row>
@@ -928,8 +1488,8 @@
       <c r="T5" s="2">
         <v>1</v>
       </c>
-      <c r="U5" s="5">
-        <f t="shared" si="0"/>
+      <c r="U5" s="2">
+        <f>SUM(B5:T5)</f>
         <v>11.5</v>
       </c>
     </row>
@@ -982,8 +1542,8 @@
       <c r="T6" s="2">
         <v>0</v>
       </c>
-      <c r="U6" s="5">
-        <f t="shared" si="0"/>
+      <c r="U6" s="2">
+        <f>SUM(B6:T6)</f>
         <v>7.75</v>
       </c>
     </row>
@@ -1036,8 +1596,8 @@
       <c r="T7" s="2">
         <v>1</v>
       </c>
-      <c r="U7" s="5">
-        <f t="shared" si="0"/>
+      <c r="U7" s="2">
+        <f>SUM(B7:T7)</f>
         <v>10</v>
       </c>
     </row>
@@ -1099,8 +1659,8 @@
       <c r="T8" s="2">
         <v>1</v>
       </c>
-      <c r="U8" s="5">
-        <f t="shared" si="0"/>
+      <c r="U8" s="2">
+        <f>SUM(B8:T8)</f>
         <v>10</v>
       </c>
     </row>
@@ -1162,8 +1722,8 @@
       <c r="T9" s="2">
         <v>1</v>
       </c>
-      <c r="U9" s="5">
-        <f t="shared" si="0"/>
+      <c r="U9" s="2">
+        <f>SUM(B9:T9)</f>
         <v>17</v>
       </c>
     </row>
@@ -1216,8 +1776,8 @@
       <c r="T10" s="2">
         <v>0</v>
       </c>
-      <c r="U10" s="5">
-        <f t="shared" si="0"/>
+      <c r="U10" s="2">
+        <f>SUM(B10:T10)</f>
         <v>7</v>
       </c>
     </row>
@@ -1270,8 +1830,8 @@
       <c r="T11" s="2">
         <v>1</v>
       </c>
-      <c r="U11" s="5">
-        <f t="shared" si="0"/>
+      <c r="U11" s="2">
+        <f>SUM(B11:T11)</f>
         <v>11</v>
       </c>
     </row>
@@ -1333,8 +1893,8 @@
       <c r="T12" s="2">
         <v>1</v>
       </c>
-      <c r="U12" s="5">
-        <f t="shared" si="0"/>
+      <c r="U12" s="2">
+        <f>SUM(B12:T12)</f>
         <v>17</v>
       </c>
     </row>
@@ -1396,8 +1956,8 @@
       <c r="T13" s="2">
         <v>1</v>
       </c>
-      <c r="U13" s="5">
-        <f t="shared" si="0"/>
+      <c r="U13" s="2">
+        <f>SUM(B13:T13)</f>
         <v>11</v>
       </c>
     </row>
@@ -1459,8 +2019,8 @@
       <c r="T14" s="2">
         <v>1</v>
       </c>
-      <c r="U14" s="5">
-        <f t="shared" si="0"/>
+      <c r="U14" s="2">
+        <f>SUM(B14:T14)</f>
         <v>10</v>
       </c>
     </row>
@@ -1522,8 +2082,8 @@
       <c r="T15" s="2">
         <v>0</v>
       </c>
-      <c r="U15" s="5">
-        <f t="shared" si="0"/>
+      <c r="U15" s="2">
+        <f>SUM(B15:T15)</f>
         <v>5</v>
       </c>
     </row>
@@ -1585,8 +2145,8 @@
       <c r="T16" s="2">
         <v>0</v>
       </c>
-      <c r="U16" s="5">
-        <f t="shared" si="0"/>
+      <c r="U16" s="2">
+        <f>SUM(B16:T16)</f>
         <v>8</v>
       </c>
     </row>
@@ -1648,8 +2208,8 @@
       <c r="T17" s="2">
         <v>1</v>
       </c>
-      <c r="U17" s="5">
-        <f t="shared" si="0"/>
+      <c r="U17" s="2">
+        <f>SUM(B17:T17)</f>
         <v>14</v>
       </c>
     </row>
@@ -1711,8 +2271,8 @@
       <c r="T18" s="2">
         <v>0</v>
       </c>
-      <c r="U18" s="5">
-        <f t="shared" si="0"/>
+      <c r="U18" s="2">
+        <f>SUM(B18:T18)</f>
         <v>5</v>
       </c>
     </row>
@@ -1774,8 +2334,8 @@
       <c r="T19" s="2">
         <v>0</v>
       </c>
-      <c r="U19" s="5">
-        <f t="shared" si="0"/>
+      <c r="U19" s="2">
+        <f>SUM(B19:T19)</f>
         <v>6</v>
       </c>
     </row>
@@ -1837,9 +2397,9 @@
       <c r="T20" s="2">
         <v>1</v>
       </c>
-      <c r="U20" s="5">
-        <f t="shared" si="0"/>
-        <v>6.8999999999999995</v>
+      <c r="U20" s="2">
+        <f>SUM(B20:T20)</f>
+        <v>6.9</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -1900,8 +2460,8 @@
       <c r="T21" s="2">
         <v>1</v>
       </c>
-      <c r="U21" s="5">
-        <f t="shared" si="0"/>
+      <c r="U21" s="2">
+        <f>SUM(B21:T21)</f>
         <v>4.2</v>
       </c>
     </row>
@@ -1963,8 +2523,8 @@
       <c r="T22" s="2">
         <v>1</v>
       </c>
-      <c r="U22" s="5">
-        <f t="shared" si="0"/>
+      <c r="U22" s="2">
+        <f>SUM(B22:T22)</f>
         <v>7</v>
       </c>
     </row>
@@ -2026,8 +2586,8 @@
       <c r="T23" s="2">
         <v>1</v>
       </c>
-      <c r="U23" s="5">
-        <f t="shared" si="0"/>
+      <c r="U23" s="2">
+        <f>SUM(B23:T23)</f>
         <v>7</v>
       </c>
     </row>
@@ -2035,6 +2595,9 @@
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="B24" s="2">
+        <v>0</v>
+      </c>
       <c r="C24" s="2">
         <v>0</v>
       </c>
@@ -2053,6 +2616,12 @@
       <c r="H24" s="2">
         <v>0</v>
       </c>
+      <c r="J24" s="2">
+        <v>1</v>
+      </c>
+      <c r="K24" s="2">
+        <v>0</v>
+      </c>
       <c r="L24" s="2">
         <v>1</v>
       </c>
@@ -2080,15 +2649,18 @@
       <c r="T24" s="2">
         <v>1</v>
       </c>
-      <c r="U24" s="5">
-        <f t="shared" si="0"/>
-        <v>5</v>
+      <c r="U24" s="2">
+        <f>SUM(B24:T24)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:21">
       <c r="A25" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="B25" s="2">
+        <v>0</v>
+      </c>
       <c r="C25" s="2">
         <v>0</v>
       </c>
@@ -2107,6 +2679,12 @@
       <c r="H25" s="2">
         <v>1</v>
       </c>
+      <c r="J25" s="2">
+        <v>0</v>
+      </c>
+      <c r="K25" s="2">
+        <v>0</v>
+      </c>
       <c r="L25" s="2">
         <v>1</v>
       </c>
@@ -2134,8 +2712,8 @@
       <c r="T25" s="2">
         <v>1</v>
       </c>
-      <c r="U25" s="5">
-        <f t="shared" si="0"/>
+      <c r="U25" s="2">
+        <f>SUM(B25:T25)</f>
         <v>6</v>
       </c>
     </row>
@@ -2144,85 +2722,85 @@
         <v>10</v>
       </c>
       <c r="B26" s="4">
-        <f t="shared" ref="B26:T26" si="1">SUM(B2:B25)</f>
+        <f>SUM(B2:B25)</f>
         <v>10.75</v>
       </c>
       <c r="C26" s="4">
-        <f t="shared" si="1"/>
+        <f>SUM(C2:C25)</f>
         <v>11</v>
       </c>
       <c r="D26" s="4">
-        <f t="shared" si="1"/>
-        <v>5.0999999999999996</v>
+        <f>SUM(D2:D25)</f>
+        <v>5.1</v>
       </c>
       <c r="E26" s="4">
-        <f t="shared" si="1"/>
-        <v>16.649999999999999</v>
+        <f>SUM(E2:E25)</f>
+        <v>16.65</v>
       </c>
       <c r="F26" s="4">
-        <f t="shared" si="1"/>
-        <v>17.600000000000001</v>
+        <f>SUM(F2:F25)</f>
+        <v>17.6</v>
       </c>
       <c r="G26" s="4">
-        <f t="shared" si="1"/>
+        <f>SUM(G2:G25)</f>
         <v>16</v>
       </c>
       <c r="H26" s="4">
-        <f t="shared" si="1"/>
+        <f>SUM(H2:H25)</f>
         <v>16.25</v>
       </c>
       <c r="I26" s="4">
-        <f t="shared" si="1"/>
+        <f>SUM(I2:I25)</f>
         <v>0</v>
       </c>
       <c r="J26" s="4">
-        <f t="shared" si="1"/>
-        <v>11.95</v>
+        <f>SUM(J2:J25)</f>
+        <v>12.95</v>
       </c>
       <c r="K26" s="4">
-        <f t="shared" si="1"/>
+        <f>SUM(K2:K25)</f>
         <v>6.15</v>
       </c>
       <c r="L26" s="4">
-        <f t="shared" si="1"/>
+        <f>SUM(L2:L25)</f>
         <v>14</v>
       </c>
       <c r="M26" s="4">
-        <f t="shared" si="1"/>
+        <f>SUM(M2:M25)</f>
         <v>9.5</v>
       </c>
       <c r="N26" s="4">
-        <f t="shared" si="1"/>
+        <f>SUM(N2:N25)</f>
         <v>11.4</v>
       </c>
       <c r="O26" s="4">
-        <f t="shared" si="1"/>
+        <f>SUM(O2:O25)</f>
         <v>0.5</v>
       </c>
       <c r="P26" s="4">
-        <f t="shared" si="1"/>
+        <f>SUM(P2:P25)</f>
         <v>14</v>
       </c>
       <c r="Q26" s="4">
-        <f t="shared" si="1"/>
+        <f>SUM(Q2:Q25)</f>
         <v>5.5</v>
       </c>
       <c r="R26" s="4">
-        <f t="shared" si="1"/>
+        <f>SUM(R2:R25)</f>
         <v>12.3</v>
       </c>
       <c r="S26" s="4">
-        <f t="shared" si="1"/>
+        <f>SUM(S2:S25)</f>
         <v>12.65</v>
       </c>
       <c r="T26" s="4">
-        <f t="shared" si="1"/>
+        <f>SUM(T2:T25)</f>
         <v>16</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>